--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>WebView hiển thị lỗi không tìm được từ khóa, các thông tin. Sau đó sang chức năng khác rồi về lại thì WebView lại hiển thị nghĩa cũ =&gt; Hệ thống phải giữ hiển thị cũ.</t>
-  </si>
-  <si>
-    <t>1.1</t>
   </si>
   <si>
     <t>Hỗ trợ hiển thị ContextMenu sau khi chọn text và thực hiện một số thao tác:
@@ -72,6 +69,20 @@
   </si>
   <si>
     <t>QUẢN LÝ PHIÊN BẢN ỨNG DỤNG WNDICTPRO</t>
+  </si>
+  <si>
+    <t>Khi thực hiện phát âm trên ứng dụng sau đó thoát khỏi ứng dụng sẽ bị ảnh hưởng tới ứng dụng khác.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>22/09/2013</t>
+  </si>
+  <si>
+    <t>Fix một số lỗi trong Favourite:
+ - Fix lỗi mới hiển thị hộp thoại confirm với người dùng đã xóa toàn bộ Favourite
+ - Fix lỗi khi xóa từ, phải kiểm tra từ hiện tại đang hiển thị có không, nếu không thì không hiển thị nữa =&gt; Chưa sửa</t>
   </si>
 </sst>
 </file>
@@ -197,16 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,6 +230,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -552,13 +566,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -578,304 +592,316 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9" t="s">
+    <row r="12" spans="1:5" ht="75" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-    </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -71,9 +71,6 @@
     <t>QUẢN LÝ PHIÊN BẢN ỨNG DỤNG WNDICTPRO</t>
   </si>
   <si>
-    <t>Khi thực hiện phát âm trên ứng dụng sau đó thoát khỏi ứng dụng sẽ bị ảnh hưởng tới ứng dụng khác.</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -83,13 +80,31 @@
     <t>Fix một số lỗi trong Favourite:
  - Fix lỗi mới hiển thị hộp thoại confirm với người dùng đã xóa toàn bộ Favourite
  - Fix lỗi khi xóa từ, phải kiểm tra từ hiện tại đang hiển thị có không, nếu không thì không hiển thị nữa =&gt; Chưa sửa</t>
+  </si>
+  <si>
+    <t>Thêm tính năng Long Click cho ứng dụng để hiển thị thông tin mô tả chức năng của nút đó</t>
+  </si>
+  <si>
+    <t>Thêm nút "Soft Menu"</t>
+  </si>
+  <si>
+    <t>Thêm chức năng App Guide</t>
+  </si>
+  <si>
+    <t>Sửa lỗi: Ở màn hình ngang từ, sau khi scroll xuống các từ dưới, chọn một từ thì sau đó từ đó không được hiển thị ở đầu list =&gt; Đã sửa</t>
+  </si>
+  <si>
+    <t>Khi thực hiện phát âm trên ứng dụng sau đó thoát khỏi ứng dụng sẽ bị ảnh hưởng tới ứng dụng khác =&gt; Đã sửa</t>
+  </si>
+  <si>
+    <t>Thêm tính năng chia sẻ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +129,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -208,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,6 +253,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -261,6 +288,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -551,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,13 +598,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -607,14 +639,14 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
@@ -624,9 +656,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -635,9 +667,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -646,9 +678,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -657,9 +689,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -675,8 +707,8 @@
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>11</v>
@@ -687,45 +719,63 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -98,13 +98,16 @@
   </si>
   <si>
     <t>Thêm tính năng chia sẻ</t>
+  </si>
+  <si>
+    <t>Để phiên bản sau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,12 +137,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -229,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -252,15 +266,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,6 +285,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -290,6 +321,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -583,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,13 +630,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -639,13 +671,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -656,9 +688,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -667,9 +699,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -678,9 +710,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -689,9 +721,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -700,83 +732,87 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17">
         <v>1.3</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="26" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9"/>
@@ -954,11 +990,14 @@
       <c r="E42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C11:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -101,13 +101,59 @@
   </si>
   <si>
     <t>Để phiên bản sau</t>
+  </si>
+  <si>
+    <t>Hỗ trợ nhiều từ điển</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xử lý lại phần quảng cáo:
+  + Với Admod: Thực hiện refresh quảng cáo sau thời gian nào đó =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cấu hình trên trang quản lý Admob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Tích hợp thêm quảng cáo StartApp</t>
+    </r>
+  </si>
+  <si>
+    <t>Thiết kế lại About:
+  - Hiển thị thêm thông tin bản quyền, chưa có hiển thị nút đăng ký bản quyền.
+  - Hiện thông tin các sản phẩm khác.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ nút Zoom cho phần hiển thị HTML</t>
+  </si>
+  <si>
+    <t>Trong phần danh sách Từ điển &amp; Ngữ pháp, trong trường hợp dữ liệu không có trong danh mục nào thì để trong danh mục Others</t>
+  </si>
+  <si>
+    <t>Fix trả về mã HTTP 400 khi download dữ liệu. Nguyên nhân do có khoảng trắng trong link nên hệ thống hiểu nhầm là link sai. Sửa trong lớp HTTPDownloader ở ba chỗ.</t>
+  </si>
+  <si>
+    <t>kkkkkk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +189,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -243,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,37 +319,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,11 +332,45 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -321,8 +381,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -615,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,13 +690,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -671,13 +731,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -688,9 +748,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -699,9 +759,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -710,9 +770,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -721,9 +781,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -732,142 +792,174 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="17">
+      <c r="A11" s="27">
         <v>3</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="27">
         <v>1.3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="22" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9">
+        <v>1.5</v>
+      </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -146,14 +146,53 @@
     <t>Fix trả về mã HTTP 400 khi download dữ liệu. Nguyên nhân do có khoảng trắng trong link nên hệ thống hiểu nhầm là link sai. Sửa trong lớp HTTPDownloader ở ba chỗ.</t>
   </si>
   <si>
-    <t>kkkkkk</t>
+    <t>23/01/2014</t>
+  </si>
+  <si>
+    <t>Tính năng "Camera Search" tra từ bằng hình ảnh (Sử dụng engine Tesseract hoặc Cube)</t>
+  </si>
+  <si>
+    <t>Hỗ trợ menu bên trái để chọn nhanh từ điển và thực hiện một số cấu hình.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ ẩn hiện nghĩa các từ điển</t>
+  </si>
+  <si>
+    <t>Chia sẻ nội dung từ đang tra</t>
+  </si>
+  <si>
+    <t>Guideline người dùng sử dụng IVONA Text-To-Speech HQ</t>
+  </si>
+  <si>
+    <t>Chưa cần thiết. Để phiên bản sau</t>
+  </si>
+  <si>
+    <t>Chia cần thiết. Để phiên bản sau</t>
+  </si>
+  <si>
+    <t>Báo lỗi từ khi không tìm thấy</t>
+  </si>
+  <si>
+    <t>Hỗ trợ note các từ và tự động hiển thị note khi tra từ</t>
+  </si>
+  <si>
+    <t>Hỗ trợ các link http và https</t>
+  </si>
+  <si>
+    <t>Không thêm được do xung đột với hiệu ứng gạt để chuyển giữa các giao diện</t>
+  </si>
+  <si>
+    <t>Bỏ nút Icon Help đi</t>
+  </si>
+  <si>
+    <t>Thêm tính năng để từ ứng dụng khác có thể gọi để tra từ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +233,12 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
@@ -296,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -332,15 +377,48 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,6 +450,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,13 +783,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -731,13 +824,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="21">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -748,9 +841,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -759,9 +852,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -770,9 +863,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -781,9 +874,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -792,13 +885,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="27">
+      <c r="A11" s="38">
         <v>3</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="38">
         <v>1.3</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -809,9 +902,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
@@ -820,9 +913,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -831,9 +924,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
@@ -842,9 +935,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
@@ -853,9 +946,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
@@ -864,22 +957,26 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="15" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="9"/>
+      <c r="A18" s="27">
+        <v>4</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
@@ -888,9 +985,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
@@ -899,10 +996,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="17" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -910,10 +1007,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -921,21 +1018,21 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="17" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -943,10 +1040,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -954,82 +1051,122 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="9"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="9"/>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5">
@@ -1037,14 +1174,14 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9"/>
@@ -1058,31 +1195,97 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="9"/>
     </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A18:A24"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -409,6 +409,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,18 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,13 +783,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -824,13 +824,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -841,9 +841,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -852,9 +852,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -863,9 +863,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -874,9 +874,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -885,13 +885,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="38">
+      <c r="A11" s="42">
         <v>3</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="42">
         <v>1.3</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -902,9 +902,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
@@ -913,9 +913,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -924,9 +924,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
@@ -935,9 +935,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
@@ -946,9 +946,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
@@ -957,9 +957,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
@@ -968,13 +968,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27">
+      <c r="A18" s="31">
         <v>4</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="31">
         <v>1.4</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -985,9 +985,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
@@ -996,9 +996,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1007,9 +1007,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
@@ -1018,9 +1018,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1029,9 +1029,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
@@ -1040,9 +1040,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1089,10 +1089,10 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1100,10 +1100,10 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="29" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1111,10 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -186,6 +186,27 @@
   </si>
   <si>
     <t>Thêm tính năng để từ ứng dụng khác có thể gọi để tra từ.</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Tự động lấy thông tin dữ liệu về khi vào "Data Manager"</t>
+  </si>
+  <si>
+    <t>Trong form text note tự động focus vào Note</t>
+  </si>
+  <si>
+    <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Hỗ trợ dấu xuống dòng</t>
   </si>
 </sst>
 </file>
@@ -341,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,6 +442,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,7 +493,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E51"/>
+  <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,13 +813,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -824,13 +854,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="36">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -841,9 +871,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -852,9 +882,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -863,9 +893,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -874,9 +904,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -885,13 +915,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="42">
+      <c r="A11" s="45">
         <v>3</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="45">
         <v>1.3</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -902,9 +932,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
@@ -913,9 +943,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -924,9 +954,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
@@ -935,9 +965,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
@@ -946,9 +976,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
@@ -957,9 +987,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
@@ -968,13 +998,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="31">
+      <c r="A18" s="34">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="34">
         <v>1.4</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -985,9 +1015,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
@@ -996,9 +1026,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1007,9 +1037,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
@@ -1018,9 +1048,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1029,9 +1059,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
@@ -1040,9 +1070,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1052,8 +1082,8 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="17"/>
-      <c r="B25" s="17">
-        <v>1.5</v>
+      <c r="B25" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
@@ -1089,7 +1119,7 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="32" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="27" t="s">
@@ -1098,7 +1128,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="26"/>
       <c r="D29" s="28" t="s">
         <v>44</v>
@@ -1109,7 +1139,9 @@
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="C30" s="26"/>
       <c r="D30" s="30" t="s">
         <v>45</v>
@@ -1118,9 +1150,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="17"/>
-      <c r="B31" s="17">
-        <v>1.6</v>
-      </c>
+      <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="15" t="s">
         <v>40</v>
@@ -1128,102 +1158,112 @@
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="45">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="25" t="s">
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="D38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9"/>
@@ -1243,28 +1283,28 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5">
@@ -1280,6 +1320,34 @@
       <c r="C51" s="9"/>
       <c r="D51" s="3"/>
       <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Hỗ trợ dấu xuống dòng</t>
+  </si>
+  <si>
+    <t>Hỗ trợ chuyển đổi nhanh từ điển</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +454,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,9 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E55"/>
+  <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,13 +819,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -854,13 +860,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="39">
+      <c r="A6" s="41">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="44" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -871,9 +877,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -882,9 +888,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -893,9 +899,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -904,9 +910,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -915,13 +921,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="45">
+      <c r="A11" s="47">
         <v>3</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="47">
         <v>1.3</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -932,9 +938,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
@@ -943,9 +949,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -954,9 +960,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
@@ -965,9 +971,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
@@ -976,9 +982,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
@@ -987,9 +993,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
@@ -998,13 +1004,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="34">
+      <c r="A18" s="36">
         <v>4</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="36">
         <v>1.4</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1015,9 +1021,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1026,9 +1032,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1037,9 +1043,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
@@ -1048,9 +1054,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1059,9 +1065,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
@@ -1070,9 +1076,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1137,140 +1143,144 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="26"/>
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="26"/>
+      <c r="B31" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="30" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="D33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="48" t="s">
-        <v>52</v>
-      </c>
+      <c r="D34" s="34"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="45">
+    <row r="35" spans="1:5">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="45">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E38" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30">
+    <row r="39" spans="1:5">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="D39" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24"/>
+      <c r="D41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="9"/>
@@ -1311,7 +1321,7 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5">
@@ -1348,6 +1358,13 @@
       <c r="C55" s="9"/>
       <c r="D55" s="3"/>
       <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>STT</t>
   </si>
@@ -194,22 +194,40 @@
     <t>1.5.2</t>
   </si>
   <si>
-    <t>Tự động lấy thông tin dữ liệu về khi vào "Data Manager"</t>
-  </si>
-  <si>
     <t>Trong form text note tự động focus vào Note</t>
   </si>
   <si>
-    <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng)</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Hỗ trợ dấu xuống dòng</t>
-  </si>
-  <si>
-    <t>Hỗ trợ chuyển đổi nhanh từ điển</t>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Bỏ hiển thị hộp thoại confirm trước khi vào form download dữ liệu trong trường hợp không có dữ liệu. Luôn luôn thực hiện lấy dữ liệu về khi có mạng, nếu không có mạng sẽ thông báo để người dùng bật mạng.</t>
+  </si>
+  <si>
+    <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng) =&gt; Luôn mở lại dữ liệu khi thoát khỏi hộp thoại 'Danh sách từ điển"</t>
+  </si>
+  <si>
+    <t>Hỗ trợ chuyển đổi từ điển ngay trong trong giao diện tra từ</t>
+  </si>
+  <si>
+    <t>Hỗ trợ một số thẻ nhớ dạng Removeable đồng thời sửa lại giao diện remove dữ liệu</t>
+  </si>
+  <si>
+    <t>Hỗ trợ dấu xuống dòng trong Note</t>
+  </si>
+  <si>
+    <t>Phím Soft Menu luôn luôn hiển thị Popup menu của ứng dụng.</t>
+  </si>
+  <si>
+    <t>Thêm nút Detail App trong hộp thoại About. Sửa để hộp thoại này có Scroll</t>
+  </si>
+  <si>
+    <t>Đổi ID Admob sang ID mới và fix lỗi sử dụng hai ID Admob trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>Sửa lỗi khi kích vào nút "Other Apps" thì không hiển thị được sản phẩm, do đổi tên DaoThang =&gt; MobileSoftVn</t>
+  </si>
+  <si>
+    <t>Hỗ trợ thanh toán trong App với 4 license (1 tháng, 3 tháng, 6 tháng, 9 tháng)</t>
   </si>
 </sst>
 </file>
@@ -365,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,9 +439,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,9 +460,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -460,6 +472,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,9 +497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E56"/>
+  <dimension ref="A2:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,13 +846,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -860,13 +887,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="41">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -877,9 +904,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="42"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -888,9 +915,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -899,9 +926,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="42"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -910,9 +937,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -921,13 +948,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="47">
+      <c r="A11" s="50">
         <v>3</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="50">
         <v>1.3</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -938,9 +965,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
@@ -949,9 +976,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -960,9 +987,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
@@ -971,9 +998,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
@@ -982,9 +1009,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
@@ -993,9 +1020,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
@@ -1004,13 +1031,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>4</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="40">
         <v>1.4</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1021,9 +1048,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1032,9 +1059,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1043,9 +1070,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
@@ -1054,9 +1081,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1065,9 +1092,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
@@ -1076,9 +1103,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1087,11 +1114,15 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="40">
+        <v>5</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="D25" s="15" t="s">
         <v>35</v>
       </c>
@@ -1100,9 +1131,9 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="15" t="s">
         <v>41</v>
       </c>
@@ -1111,9 +1142,9 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="15" t="s">
         <v>42</v>
       </c>
@@ -1122,221 +1153,255 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="60">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="32" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="26"/>
-      <c r="B31" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="33">
+        <v>6</v>
+      </c>
+      <c r="B31" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="30">
+        <v>50</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="D33" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="45">
+      <c r="D35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="9"/>
+      <c r="D36" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="20" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="25"/>
+      <c r="B45" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="25" t="s">
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="D49" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="9"/>
@@ -1350,27 +1415,94 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="9"/>
     </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A18:A24"/>
+  <mergeCells count="13">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
@@ -1378,6 +1510,12 @@
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/wndictpro/version/WNDictPro_Version.xlsx
+++ b/trunk/wndictpro/version/WNDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Chưa cần thiết. Để phiên bản sau</t>
   </si>
   <si>
-    <t>Chia cần thiết. Để phiên bản sau</t>
-  </si>
-  <si>
     <t>Báo lỗi từ khi không tìm thấy</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>1.5.1</t>
   </si>
   <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
     <t>Trong form text note tự động focus vào Note</t>
   </si>
   <si>
@@ -228,6 +222,33 @@
   </si>
   <si>
     <t>Hỗ trợ thanh toán trong App với 4 license (1 tháng, 3 tháng, 6 tháng, 9 tháng)</t>
+  </si>
+  <si>
+    <t>x.x.x</t>
+  </si>
+  <si>
+    <t>Fix lỗi: Khi chuyển đổi từ điển thì list từ trên màn hình landscape lỗi, cần load lại.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ thêm Widget:
+ - Nguồn dữ liệu hiển thị: Từ điển chính, Favourite, Wordnote.
+ - Cho phép thay đổi kích thước font chữ và thời gian cập nhật từ mới.</t>
+  </si>
+  <si>
+    <t>Hiển thị hộp thoại "Quick Dictionary" cho phép tra nhanh từ.</t>
+  </si>
+  <si>
+    <t>Thêm dữ liệu "Chemical Dictionary"</t>
+  </si>
+  <si>
+    <t>Lỗi Help của từ điển không parse HTML (Bug phát sinh thêm khi tối ưu lại ứng dụng sử dụng Lib MobileSoftVn)</t>
+  </si>
+  <si>
+    <t>Hỗ trợ mua license ứng dụng:
+ - Xử lý license để không thực hiện quảng cáo.
+ - Mua license sử dụng Google Billing (BillingActivity)
+ - Hiển thị thông tin bản quyền trên AboutActivity.
+ - Thêm menu item "Update Pro Version" tới Menu ứng dụng</t>
   </si>
 </sst>
 </file>
@@ -383,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,19 +502,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,6 +537,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E66"/>
+  <dimension ref="A2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,13 +876,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -887,13 +917,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="44">
+      <c r="A6" s="40">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -904,9 +934,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -915,9 +945,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
@@ -926,9 +956,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="75">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -937,9 +967,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -948,13 +978,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="50">
+      <c r="A11" s="46">
         <v>3</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="46">
         <v>1.3</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -965,9 +995,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
@@ -976,9 +1006,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -987,9 +1017,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
@@ -998,9 +1028,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
@@ -1009,9 +1039,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1020,9 +1050,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
@@ -1031,13 +1061,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="40">
+      <c r="A18" s="52">
         <v>4</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="52">
         <v>1.4</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1048,9 +1078,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1059,9 +1089,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1070,9 +1100,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
@@ -1081,9 +1111,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
@@ -1092,9 +1122,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
@@ -1103,9 +1133,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="60">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
@@ -1114,14 +1144,14 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="40">
+      <c r="A25" s="52">
         <v>5</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>49</v>
+      <c r="B25" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>35</v>
@@ -1131,55 +1161,55 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="E27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="27" t="s">
-        <v>44</v>
-      </c>
       <c r="E29" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>11</v>
@@ -1194,7 +1224,7 @@
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>11</v>
@@ -1205,7 +1235,7 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>11</v>
@@ -1216,7 +1246,7 @@
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>11</v>
@@ -1227,7 +1257,7 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>11</v>
@@ -1238,7 +1268,7 @@
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>11</v>
@@ -1249,7 +1279,7 @@
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>11</v>
@@ -1260,7 +1290,7 @@
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>11</v>
@@ -1271,7 +1301,7 @@
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>11</v>
@@ -1282,7 +1312,7 @@
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>11</v>
@@ -1307,150 +1337,174 @@
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="25"/>
-      <c r="B45" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="30">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="20" t="s">
+      <c r="E43" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="90">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="25"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="24" t="s">
+      <c r="E52" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E53" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="D54" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="9"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="9"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="15"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="9"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="9"/>
@@ -1463,35 +1517,35 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5">
@@ -1501,8 +1555,49 @@
       <c r="D66" s="3"/>
       <c r="E66" s="9"/>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="A18:A24"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
@@ -1510,12 +1605,6 @@
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
